--- a/Excel reglages/Réglage Fréquence et Timer.xlsx
+++ b/Excel reglages/Réglage Fréquence et Timer.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaosTheory\Desktop\Carte-Strategie\Excel reglages\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Freq et timer" sheetId="1" r:id="rId1"/>
     <sheet name="PWM" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Fext</t>
   </si>
@@ -88,15 +93,37 @@
   </si>
   <si>
     <t>PxTPER MAX</t>
+  </si>
+  <si>
+    <t>Timer 4</t>
+  </si>
+  <si>
+    <t>1 ms</t>
+  </si>
+  <si>
+    <t>5 ms</t>
+  </si>
+  <si>
+    <t>10 ms</t>
+  </si>
+  <si>
+    <t>20 ms</t>
+  </si>
+  <si>
+    <t>100 ms</t>
+  </si>
+  <si>
+    <t>200 ms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000000000000000000"/>
+    <numFmt numFmtId="180" formatCode="#,##0.000000000000000_ ;\-#,##0.000000000000000\ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -143,6 +170,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -153,6 +181,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -201,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,9 +265,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,6 +317,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +522,7 @@
     <col min="3" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -678,7 +744,7 @@
         <v>0.01</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" ref="H18:H20" si="0">G18/$D$18</f>
+        <f t="shared" ref="H18:H21" si="0">G18/$D$18</f>
         <v>1562.8348214285713</v>
       </c>
     </row>
@@ -686,98 +752,186 @@
       <c r="F19" t="s">
         <v>6</v>
       </c>
-      <c r="G19">
-        <v>90</v>
+      <c r="G19" s="1">
+        <v>0.02</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="0"/>
-        <v>14065513.392857142</v>
+        <v>3125.6696428571427</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G20" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
+        <v>15628.348214285714</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
         <v>31256.696428571428</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="7">
         <f>ROUND(H16,0)*$D$18</f>
         <v>9.9818610297793334E-4</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H24" s="2">
         <f>ROUNDUP(H16,0)*$D$18</f>
         <v>1.0045847318431765E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="2">
-        <f>ROUND(H17,0)*$D$18</f>
+      <c r="I24">
+        <f>ABS(G16-G24)</f>
+        <v>1.8138970220666836E-6</v>
+      </c>
+      <c r="J24">
+        <f>ABS(H24-G16)</f>
+        <v>4.5847318431765233E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" ref="G25:G29" si="1">ROUND(H17,0)*$D$18</f>
         <v>4.9973291437549099E-3</v>
       </c>
-      <c r="H24" s="2">
-        <f>ROUNDUP(H17,0)*$D$18</f>
+      <c r="H25" s="2">
+        <f t="shared" ref="H25:H29" si="2">ROUNDUP(H17,0)*$D$18</f>
         <v>5.0037277726201531E-3</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="2">
-        <f t="shared" ref="G25:G26" si="1">ROUND(H18,0)*$D$18</f>
+      <c r="I25">
+        <f t="shared" ref="I25:I29" si="3">ABS(G17-G25)</f>
+        <v>2.6708562450902112E-6</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J29" si="4">ABS(H25-G17)</f>
+        <v>3.7277726201529957E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="1"/>
         <v>1.0001056916375064E-2</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" ref="H25:H27" si="2">ROUNDUP(H18,0)*$D$18</f>
-        <v>1.0001056916375064E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>89.999997486252951</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="2"/>
-        <v>90.000003884881821</v>
+        <v>1.0001056916375064E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>1.0569163750636518E-6</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>1.0569163750636518E-6</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="2">
-        <f t="shared" ref="G27" si="3">ROUND(H20,0)*$D$18</f>
-        <v>0.20000194244090555</v>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0002113832750128E-2</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="2"/>
+        <v>2.0002113832750128E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>2.1138327501273035E-6</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>2.1138327501273035E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>9.9997771906020147E-2</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10000417053488539</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>2.2280939798585697E-6</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>4.1705348853837698E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="1"/>
         <v>0.20000194244090555</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="H29" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20000194244090555</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1.9424409055390779E-6</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>1.9424409055390779E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
         <f>C15/C11</f>
         <v>1.0528571428571429</v>
       </c>
-      <c r="D33">
-        <f>C33*B11</f>
+      <c r="D34">
+        <f>C34*B11</f>
         <v>160.03428571428572</v>
       </c>
-      <c r="E33">
-        <f>D33/D11</f>
+      <c r="E34">
+        <f>D34/D11</f>
         <v>80.017142857142858</v>
       </c>
     </row>
@@ -791,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
